--- a/data/pca/factorExposure/factorExposure_2009-01-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01631357222630028</v>
+        <v>-0.01525411115843218</v>
       </c>
       <c r="C2">
-        <v>-0.009893632696239859</v>
+        <v>0.0121748405251349</v>
       </c>
       <c r="D2">
-        <v>-0.01771797694557779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01480877125488129</v>
+      </c>
+      <c r="E2">
+        <v>-0.004446259316573045</v>
+      </c>
+      <c r="F2">
+        <v>0.01115526896797731</v>
+      </c>
+      <c r="G2">
+        <v>0.01585902667505263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08191970580847395</v>
+        <v>-0.08409287087596487</v>
       </c>
       <c r="C4">
-        <v>-0.08285100050082615</v>
+        <v>0.08836409366455757</v>
       </c>
       <c r="D4">
-        <v>0.05965486483104931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05844069794766271</v>
+      </c>
+      <c r="E4">
+        <v>0.02947433066579475</v>
+      </c>
+      <c r="F4">
+        <v>0.03269420256717096</v>
+      </c>
+      <c r="G4">
+        <v>0.02841637070251785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003216220336547138</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001897008762165293</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.002483468117486854</v>
+      </c>
+      <c r="E5">
+        <v>-0.002594224557899014</v>
+      </c>
+      <c r="F5">
+        <v>-0.003270330304664693</v>
+      </c>
+      <c r="G5">
+        <v>-0.001714385038387214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1681564994836087</v>
+        <v>-0.1699625819435152</v>
       </c>
       <c r="C6">
-        <v>0.02011168712155128</v>
+        <v>-0.01148880133544441</v>
       </c>
       <c r="D6">
-        <v>0.05142841821910708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05103904324203219</v>
+      </c>
+      <c r="E6">
+        <v>0.03103297619255406</v>
+      </c>
+      <c r="F6">
+        <v>-0.06381175241598201</v>
+      </c>
+      <c r="G6">
+        <v>0.002426417784562364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05545970645530671</v>
+        <v>-0.05935584522267462</v>
       </c>
       <c r="C7">
-        <v>-0.06021066399012442</v>
+        <v>0.0645382041548362</v>
       </c>
       <c r="D7">
-        <v>0.03937778566803964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0422269007496659</v>
+      </c>
+      <c r="E7">
+        <v>0.06440575194283125</v>
+      </c>
+      <c r="F7">
+        <v>0.0609114643127678</v>
+      </c>
+      <c r="G7">
+        <v>0.0401529967020952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05466151146656478</v>
+        <v>-0.05109288784578549</v>
       </c>
       <c r="C8">
-        <v>-0.05080462954329067</v>
+        <v>0.0516694514747886</v>
       </c>
       <c r="D8">
-        <v>-0.01176804318508706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01338702933891356</v>
+      </c>
+      <c r="E8">
+        <v>-0.009542613104064441</v>
+      </c>
+      <c r="F8">
+        <v>0.04063645563343891</v>
+      </c>
+      <c r="G8">
+        <v>-0.001226639322667823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06106959448214232</v>
+        <v>-0.06441995483219562</v>
       </c>
       <c r="C9">
-        <v>-0.08673442351454219</v>
+        <v>0.09047916310972764</v>
       </c>
       <c r="D9">
-        <v>0.0885323638472002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08375437858351092</v>
+      </c>
+      <c r="E9">
+        <v>0.04186065223519272</v>
+      </c>
+      <c r="F9">
+        <v>0.05705002373262051</v>
+      </c>
+      <c r="G9">
+        <v>0.002323338813682435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.109501209046528</v>
+        <v>-0.101845274387755</v>
       </c>
       <c r="C10">
-        <v>0.1436002877442994</v>
+        <v>-0.1349668482020751</v>
       </c>
       <c r="D10">
-        <v>-0.1085929260871122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.09633447877283485</v>
+      </c>
+      <c r="E10">
+        <v>-0.03229961440613904</v>
+      </c>
+      <c r="F10">
+        <v>0.04910213801589884</v>
+      </c>
+      <c r="G10">
+        <v>-0.02631368571407187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07872670819195585</v>
+        <v>-0.07662193810079268</v>
       </c>
       <c r="C11">
-        <v>-0.12770974336838</v>
+        <v>0.1284509607636932</v>
       </c>
       <c r="D11">
-        <v>0.06236303438493626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05386133877988494</v>
+      </c>
+      <c r="E11">
+        <v>0.003188769509608742</v>
+      </c>
+      <c r="F11">
+        <v>0.0780813727851582</v>
+      </c>
+      <c r="G11">
+        <v>-0.003696269872297921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08267557790436196</v>
+        <v>-0.07837504978648281</v>
       </c>
       <c r="C12">
-        <v>-0.147957861868939</v>
+        <v>0.1492092195725576</v>
       </c>
       <c r="D12">
-        <v>0.06798423079422238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.06164707845065719</v>
+      </c>
+      <c r="E12">
+        <v>0.01084099916075795</v>
+      </c>
+      <c r="F12">
+        <v>0.08336980601910345</v>
+      </c>
+      <c r="G12">
+        <v>0.001549278443398958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04263986899823281</v>
+        <v>-0.04278279095718195</v>
       </c>
       <c r="C13">
-        <v>-0.06926089550274042</v>
+        <v>0.07512025144126436</v>
       </c>
       <c r="D13">
-        <v>0.02748175890789105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02693739350827428</v>
+      </c>
+      <c r="E13">
+        <v>0.02368539404558116</v>
+      </c>
+      <c r="F13">
+        <v>0.07320719114019385</v>
+      </c>
+      <c r="G13">
+        <v>0.003036732093399508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02031467710916446</v>
+        <v>-0.02322106726327157</v>
       </c>
       <c r="C14">
-        <v>-0.04402793526697658</v>
+        <v>0.04465266529405237</v>
       </c>
       <c r="D14">
-        <v>0.05189618734369918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04968499039787885</v>
+      </c>
+      <c r="E14">
+        <v>0.005317898453331216</v>
+      </c>
+      <c r="F14">
+        <v>0.08007558874021369</v>
+      </c>
+      <c r="G14">
+        <v>-0.0128528164800583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03134699036527306</v>
+        <v>-0.03355213984302019</v>
       </c>
       <c r="C15">
-        <v>-0.05581430801254778</v>
+        <v>0.05581680540629209</v>
       </c>
       <c r="D15">
-        <v>0.04441254625399343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03892263693761895</v>
+      </c>
+      <c r="E15">
+        <v>0.0279523420960159</v>
+      </c>
+      <c r="F15">
+        <v>0.02704950844167236</v>
+      </c>
+      <c r="G15">
+        <v>-0.01220252819555956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05762023740314913</v>
+        <v>-0.05755806507726537</v>
       </c>
       <c r="C16">
-        <v>-0.1438151721385665</v>
+        <v>0.1446742872725352</v>
       </c>
       <c r="D16">
-        <v>0.07693969115216828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.07011018193537409</v>
+      </c>
+      <c r="E16">
+        <v>-0.01177326430874456</v>
+      </c>
+      <c r="F16">
+        <v>0.07877634586759016</v>
+      </c>
+      <c r="G16">
+        <v>0.0006032049202792254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.00545831425124802</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004475881382079317</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002674804674779954</v>
+      </c>
+      <c r="E17">
+        <v>-0.008679926625302398</v>
+      </c>
+      <c r="F17">
+        <v>-0.006919798552060067</v>
+      </c>
+      <c r="G17">
+        <v>-0.01455758527556364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03659223828400726</v>
+        <v>-0.05169958596464486</v>
       </c>
       <c r="C18">
-        <v>-0.04947040854100415</v>
+        <v>0.04268737966239543</v>
       </c>
       <c r="D18">
-        <v>0.001190502389289208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.006593656326029636</v>
+      </c>
+      <c r="E18">
+        <v>-0.006012928958574107</v>
+      </c>
+      <c r="F18">
+        <v>-0.057629691883117</v>
+      </c>
+      <c r="G18">
+        <v>-0.003101613894713606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05636086226772513</v>
+        <v>-0.05635358732259838</v>
       </c>
       <c r="C20">
-        <v>-0.09407629182726834</v>
+        <v>0.09335511280693697</v>
       </c>
       <c r="D20">
-        <v>0.08623349253429896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08069684344425379</v>
+      </c>
+      <c r="E20">
+        <v>0.01184676402028866</v>
+      </c>
+      <c r="F20">
+        <v>0.07171359101541423</v>
+      </c>
+      <c r="G20">
+        <v>-0.009806146758009743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04387650507561167</v>
+        <v>-0.04530678245187689</v>
       </c>
       <c r="C21">
-        <v>-0.06191270656413748</v>
+        <v>0.05938717073466066</v>
       </c>
       <c r="D21">
-        <v>0.0103688784003105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.007880520074344477</v>
+      </c>
+      <c r="E21">
+        <v>0.01702367836075346</v>
+      </c>
+      <c r="F21">
+        <v>0.06944992582523546</v>
+      </c>
+      <c r="G21">
+        <v>0.01792108261248646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04543797872662874</v>
+        <v>-0.04465432970923425</v>
       </c>
       <c r="C22">
-        <v>-0.02522136632426578</v>
+        <v>0.02933298300086686</v>
       </c>
       <c r="D22">
-        <v>0.0009491850355415913</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002588757807395876</v>
+      </c>
+      <c r="E22">
+        <v>-0.1529899876638914</v>
+      </c>
+      <c r="F22">
+        <v>-0.01608127057505889</v>
+      </c>
+      <c r="G22">
+        <v>-0.0001720075498830799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0454474065281799</v>
+        <v>-0.04466237381844652</v>
       </c>
       <c r="C23">
-        <v>-0.02521415358098233</v>
+        <v>0.02932682022562942</v>
       </c>
       <c r="D23">
-        <v>0.0009318058725299132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002571747331983665</v>
+      </c>
+      <c r="E23">
+        <v>-0.1530319890449987</v>
+      </c>
+      <c r="F23">
+        <v>-0.01607153170733333</v>
+      </c>
+      <c r="G23">
+        <v>-0.0002124632793309954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06654216853552143</v>
+        <v>-0.06584197312492365</v>
       </c>
       <c r="C24">
-        <v>-0.1347105932857066</v>
+        <v>0.1340468457228612</v>
       </c>
       <c r="D24">
-        <v>0.06907712549138717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06257358251577995</v>
+      </c>
+      <c r="E24">
+        <v>0.009498301070851848</v>
+      </c>
+      <c r="F24">
+        <v>0.07413950426800467</v>
+      </c>
+      <c r="G24">
+        <v>0.003871688423348573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07217912298250738</v>
+        <v>-0.07059858029410584</v>
       </c>
       <c r="C25">
-        <v>-0.1180893944333044</v>
+        <v>0.1179009375914535</v>
       </c>
       <c r="D25">
-        <v>0.04213848971314947</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03327634673631075</v>
+      </c>
+      <c r="E25">
+        <v>0.02899254005768404</v>
+      </c>
+      <c r="F25">
+        <v>0.09150288955370126</v>
+      </c>
+      <c r="G25">
+        <v>0.005351018626127251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05645964676158036</v>
+        <v>-0.06057243897996228</v>
       </c>
       <c r="C26">
-        <v>-0.06824204518134713</v>
+        <v>0.06936521358576035</v>
       </c>
       <c r="D26">
-        <v>0.03459745258251883</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02882513804099919</v>
+      </c>
+      <c r="E26">
+        <v>0.001211823235163858</v>
+      </c>
+      <c r="F26">
+        <v>0.08086058972401935</v>
+      </c>
+      <c r="G26">
+        <v>-0.0113764888021062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1709050314208979</v>
+        <v>-0.1736934740207554</v>
       </c>
       <c r="C28">
-        <v>0.2282627771404778</v>
+        <v>-0.2282660204271644</v>
       </c>
       <c r="D28">
-        <v>-0.03033804615008935</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.04150894317109397</v>
+      </c>
+      <c r="E28">
+        <v>0.05845751351566333</v>
+      </c>
+      <c r="F28">
+        <v>0.1375988812879982</v>
+      </c>
+      <c r="G28">
+        <v>-0.01832854233383247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02410399891171428</v>
+        <v>-0.02673711407607673</v>
       </c>
       <c r="C29">
-        <v>-0.04829428445317658</v>
+        <v>0.04631531913635568</v>
       </c>
       <c r="D29">
-        <v>0.02047437164758159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01984491320187532</v>
+      </c>
+      <c r="E29">
+        <v>-0.01377956467308466</v>
+      </c>
+      <c r="F29">
+        <v>0.07630350416152924</v>
+      </c>
+      <c r="G29">
+        <v>-0.007836479035846746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03992661951458568</v>
+        <v>-0.04157684286744476</v>
       </c>
       <c r="C30">
-        <v>-0.06948531317908185</v>
+        <v>0.07600920225962533</v>
       </c>
       <c r="D30">
-        <v>0.1139917704687127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0912822357305076</v>
+      </c>
+      <c r="E30">
+        <v>0.1094473903358022</v>
+      </c>
+      <c r="F30">
+        <v>0.06310640648818336</v>
+      </c>
+      <c r="G30">
+        <v>-0.02048929545095347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05211987021809929</v>
+        <v>-0.05152284824204343</v>
       </c>
       <c r="C31">
-        <v>-0.03312890598461583</v>
+        <v>0.03606588767571724</v>
       </c>
       <c r="D31">
-        <v>0.02001100566081397</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0248272646978018</v>
+      </c>
+      <c r="E31">
+        <v>-0.02966554697720638</v>
+      </c>
+      <c r="F31">
+        <v>0.02113310870468215</v>
+      </c>
+      <c r="G31">
+        <v>0.02126086508628079</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04335161891989517</v>
+        <v>-0.04782276158951926</v>
       </c>
       <c r="C32">
-        <v>-0.04990593156193794</v>
+        <v>0.04772453856894168</v>
       </c>
       <c r="D32">
-        <v>0.02481924690498192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0279424826329038</v>
+      </c>
+      <c r="E32">
+        <v>-0.01663164689239824</v>
+      </c>
+      <c r="F32">
+        <v>0.005760241696194682</v>
+      </c>
+      <c r="G32">
+        <v>-0.009477111085094437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07880276910888706</v>
+        <v>-0.08195261686135161</v>
       </c>
       <c r="C33">
-        <v>-0.1083312521427091</v>
+        <v>0.1170419774236036</v>
       </c>
       <c r="D33">
-        <v>0.07371369089017055</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07246337587602357</v>
+      </c>
+      <c r="E33">
+        <v>0.01117182380249146</v>
+      </c>
+      <c r="F33">
+        <v>0.07464178881083446</v>
+      </c>
+      <c r="G33">
+        <v>-0.003967808949916411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05464102168693342</v>
+        <v>-0.0544851283464603</v>
       </c>
       <c r="C34">
-        <v>-0.1189782852654785</v>
+        <v>0.1208346620487133</v>
       </c>
       <c r="D34">
-        <v>0.0797935393791589</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06324088615858821</v>
+      </c>
+      <c r="E34">
+        <v>0.04284950062036338</v>
+      </c>
+      <c r="F34">
+        <v>0.08422222874445613</v>
+      </c>
+      <c r="G34">
+        <v>-0.02650656847512798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02698916770174184</v>
+        <v>-0.02957884194742048</v>
       </c>
       <c r="C35">
-        <v>-0.01694568058145123</v>
+        <v>0.01920442776983915</v>
       </c>
       <c r="D35">
-        <v>0.03004118178408345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02732056021391717</v>
+      </c>
+      <c r="E35">
+        <v>-0.01031818824783786</v>
+      </c>
+      <c r="F35">
+        <v>0.03274041978051383</v>
+      </c>
+      <c r="G35">
+        <v>-0.03245161132693253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02320503143707254</v>
+        <v>-0.0272972054225256</v>
       </c>
       <c r="C36">
-        <v>-0.0492810406895054</v>
+        <v>0.04820493553347732</v>
       </c>
       <c r="D36">
-        <v>0.07137347142829253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.06229916620757165</v>
+      </c>
+      <c r="E36">
+        <v>0.006326955909822362</v>
+      </c>
+      <c r="F36">
+        <v>0.02529140515786468</v>
+      </c>
+      <c r="G36">
+        <v>-0.08219909343380932</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-6.035220601973603e-05</v>
+        <v>-0.003455871842593239</v>
       </c>
       <c r="C37">
-        <v>0.0002471094472679284</v>
+        <v>0.006956025451133064</v>
       </c>
       <c r="D37">
-        <v>0.0003028282157537273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.001597136960735067</v>
+      </c>
+      <c r="E37">
+        <v>0.0005707297509028168</v>
+      </c>
+      <c r="F37">
+        <v>0.01064807871765128</v>
+      </c>
+      <c r="G37">
+        <v>0.00558033583219076</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08438971770126738</v>
+        <v>-0.07850449223292937</v>
       </c>
       <c r="C39">
-        <v>-0.150256953462936</v>
+        <v>0.1460688100313982</v>
       </c>
       <c r="D39">
-        <v>0.04597980875219399</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.03997726347822081</v>
+      </c>
+      <c r="E39">
+        <v>-0.003469894533408189</v>
+      </c>
+      <c r="F39">
+        <v>0.133566764949224</v>
+      </c>
+      <c r="G39">
+        <v>0.03249581987980385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04659425703189273</v>
+        <v>-0.05082271166698391</v>
       </c>
       <c r="C40">
-        <v>-0.06968174228775387</v>
+        <v>0.0736806568595815</v>
       </c>
       <c r="D40">
-        <v>0.02644166679886612</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01615038686289964</v>
+      </c>
+      <c r="E40">
+        <v>0.003380808414452054</v>
+      </c>
+      <c r="F40">
+        <v>0.04798533731540829</v>
+      </c>
+      <c r="G40">
+        <v>-0.04489839714123948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0265172172669819</v>
+        <v>-0.02826668898742853</v>
       </c>
       <c r="C41">
-        <v>-0.02069331205351978</v>
+        <v>0.02203972444883735</v>
       </c>
       <c r="D41">
-        <v>-0.005966259314556125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004891328813372127</v>
+      </c>
+      <c r="E41">
+        <v>-0.01060102685837667</v>
+      </c>
+      <c r="F41">
+        <v>-0.01143161820794228</v>
+      </c>
+      <c r="G41">
+        <v>-0.01204604545383259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04265785258690734</v>
+        <v>-0.04201536049276267</v>
       </c>
       <c r="C43">
-        <v>-0.04090377818539898</v>
+        <v>0.03790570370097741</v>
       </c>
       <c r="D43">
-        <v>0.008505024822582429</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.008657190823903047</v>
+      </c>
+      <c r="E43">
+        <v>-0.03140632550408756</v>
+      </c>
+      <c r="F43">
+        <v>0.02643473464261092</v>
+      </c>
+      <c r="G43">
+        <v>-0.002165417132654294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05669547368894012</v>
+        <v>-0.06406151964858865</v>
       </c>
       <c r="C44">
-        <v>-0.08066265061484673</v>
+        <v>0.08525047724556047</v>
       </c>
       <c r="D44">
-        <v>0.2803837863583243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.2486297310577198</v>
+      </c>
+      <c r="E44">
+        <v>0.1436103024645987</v>
+      </c>
+      <c r="F44">
+        <v>0.1230488979786321</v>
+      </c>
+      <c r="G44">
+        <v>-0.167848403440654</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001295516673500634</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>9.580038766565336e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.001286522079124767</v>
+      </c>
+      <c r="E45">
+        <v>0.001369584926077207</v>
+      </c>
+      <c r="F45">
+        <v>0.000765146872702926</v>
+      </c>
+      <c r="G45">
+        <v>0.005249607452039448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02810454001427809</v>
+        <v>-0.02769484781596079</v>
       </c>
       <c r="C46">
-        <v>-0.03415617745523832</v>
+        <v>0.03308183133584974</v>
       </c>
       <c r="D46">
-        <v>0.0212128755887123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02410372355545956</v>
+      </c>
+      <c r="E46">
+        <v>-0.03545306674034165</v>
+      </c>
+      <c r="F46">
+        <v>0.07430101483042677</v>
+      </c>
+      <c r="G46">
+        <v>0.02017281697772967</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05156483431183099</v>
+        <v>-0.05096215112191908</v>
       </c>
       <c r="C47">
-        <v>-0.02324166224292313</v>
+        <v>0.02645688728364049</v>
       </c>
       <c r="D47">
-        <v>-0.009857807820881727</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.002580509119652388</v>
+      </c>
+      <c r="E47">
+        <v>-0.06377949891141867</v>
+      </c>
+      <c r="F47">
+        <v>-0.003425748887358959</v>
+      </c>
+      <c r="G47">
+        <v>0.03127886723079485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04690984848300038</v>
+        <v>-0.05006288345022582</v>
       </c>
       <c r="C48">
-        <v>-0.06960850128930418</v>
+        <v>0.06892370478770352</v>
       </c>
       <c r="D48">
-        <v>0.02414783165584255</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01979176247357737</v>
+      </c>
+      <c r="E48">
+        <v>0.02900025271739684</v>
+      </c>
+      <c r="F48">
+        <v>0.05285748211816723</v>
+      </c>
+      <c r="G48">
+        <v>0.02100150530516208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1940356719122227</v>
+        <v>-0.1976494945652714</v>
       </c>
       <c r="C49">
-        <v>0.01382935018176619</v>
+        <v>-0.007652641508231396</v>
       </c>
       <c r="D49">
-        <v>0.02108986585380486</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02638071315434236</v>
+      </c>
+      <c r="E49">
+        <v>0.0374551201523062</v>
+      </c>
+      <c r="F49">
+        <v>-0.06085571729095663</v>
+      </c>
+      <c r="G49">
+        <v>0.003678516931395778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05046310338507039</v>
+        <v>-0.0519713517289002</v>
       </c>
       <c r="C50">
-        <v>-0.03128496958466676</v>
+        <v>0.033675244686796</v>
       </c>
       <c r="D50">
-        <v>0.02750408839748429</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03194442672653785</v>
+      </c>
+      <c r="E50">
+        <v>-0.0161490889241163</v>
+      </c>
+      <c r="F50">
+        <v>0.01039154510226088</v>
+      </c>
+      <c r="G50">
+        <v>0.02331373795358908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1440248483682437</v>
+        <v>-0.1375426863788336</v>
       </c>
       <c r="C52">
-        <v>-0.03215901692839526</v>
+        <v>0.03394110930933161</v>
       </c>
       <c r="D52">
-        <v>0.05597076657681647</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.0603895895267627</v>
+      </c>
+      <c r="E52">
+        <v>-0.01379221907002065</v>
+      </c>
+      <c r="F52">
+        <v>-0.07066405747646286</v>
+      </c>
+      <c r="G52">
+        <v>0.04205827945560236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1743035260485576</v>
+        <v>-0.1654611663639565</v>
       </c>
       <c r="C53">
-        <v>0.002827775633943845</v>
+        <v>0.001368331976630115</v>
       </c>
       <c r="D53">
-        <v>0.09567076121975648</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.1047559681885537</v>
+      </c>
+      <c r="E53">
+        <v>0.002288852992592583</v>
+      </c>
+      <c r="F53">
+        <v>-0.1161390833296961</v>
+      </c>
+      <c r="G53">
+        <v>0.08279954638105506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01082058211181989</v>
+        <v>-0.01434132535946278</v>
       </c>
       <c r="C54">
-        <v>-0.03290847721042801</v>
+        <v>0.03400646205686528</v>
       </c>
       <c r="D54">
-        <v>0.01866264158545484</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02098856627958897</v>
+      </c>
+      <c r="E54">
+        <v>-0.01075885575980515</v>
+      </c>
+      <c r="F54">
+        <v>0.0471692687004394</v>
+      </c>
+      <c r="G54">
+        <v>-0.001559910598553402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.120949368278423</v>
+        <v>-0.117507490130475</v>
       </c>
       <c r="C55">
-        <v>-0.006003282577955157</v>
+        <v>0.01188456350799147</v>
       </c>
       <c r="D55">
-        <v>0.07185365331614571</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.07987258058559359</v>
+      </c>
+      <c r="E55">
+        <v>-0.03117060395700207</v>
+      </c>
+      <c r="F55">
+        <v>-0.03456470799169634</v>
+      </c>
+      <c r="G55">
+        <v>0.07526112809939253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1809644306615937</v>
+        <v>-0.1732238119814347</v>
       </c>
       <c r="C56">
-        <v>0.009267102656560902</v>
+        <v>-0.007526956729923426</v>
       </c>
       <c r="D56">
-        <v>0.04728873170085079</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06236653927197673</v>
+      </c>
+      <c r="E56">
+        <v>-0.03876054966559931</v>
+      </c>
+      <c r="F56">
+        <v>-0.1462050484320238</v>
+      </c>
+      <c r="G56">
+        <v>0.08727270312760244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04391777175884795</v>
+        <v>-0.04444488577267454</v>
       </c>
       <c r="C58">
-        <v>-0.09806528718111994</v>
+        <v>0.1062679600333397</v>
       </c>
       <c r="D58">
-        <v>0.008440117589312438</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.01648727969674437</v>
+      </c>
+      <c r="E58">
+        <v>-0.03178084890455214</v>
+      </c>
+      <c r="F58">
+        <v>0.04741586657707934</v>
+      </c>
+      <c r="G58">
+        <v>0.01668705289651233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1874430342576841</v>
+        <v>-0.1908245836213597</v>
       </c>
       <c r="C59">
-        <v>0.1779600755996623</v>
+        <v>-0.1805576938999302</v>
       </c>
       <c r="D59">
-        <v>-0.07688367932760058</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.07640495779895684</v>
+      </c>
+      <c r="E59">
+        <v>-0.03520456923070544</v>
+      </c>
+      <c r="F59">
+        <v>0.0720059908038778</v>
+      </c>
+      <c r="G59">
+        <v>0.02414610568158547</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2141899764433469</v>
+        <v>-0.2090318169653201</v>
       </c>
       <c r="C60">
-        <v>-0.003283326020466124</v>
+        <v>0.009292774669571062</v>
       </c>
       <c r="D60">
-        <v>-0.06998161347581552</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04776188891890056</v>
+      </c>
+      <c r="E60">
+        <v>-0.04793228999629845</v>
+      </c>
+      <c r="F60">
+        <v>-0.1881537568551369</v>
+      </c>
+      <c r="G60">
+        <v>0.1022727984128315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0645673639536104</v>
+        <v>-0.06182119122969311</v>
       </c>
       <c r="C61">
-        <v>-0.121550123637108</v>
+        <v>0.1204841676435215</v>
       </c>
       <c r="D61">
-        <v>0.04248974558770681</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03892177756740504</v>
+      </c>
+      <c r="E61">
+        <v>-0.0137680182365869</v>
+      </c>
+      <c r="F61">
+        <v>0.08839108241632603</v>
+      </c>
+      <c r="G61">
+        <v>0.01048828633004298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.168644028187012</v>
+        <v>-0.1648344486328953</v>
       </c>
       <c r="C62">
-        <v>0.01008819542179677</v>
+        <v>-0.007237824646723217</v>
       </c>
       <c r="D62">
-        <v>0.0403547071511378</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.05623885302315478</v>
+      </c>
+      <c r="E62">
+        <v>-0.03413481106535322</v>
+      </c>
+      <c r="F62">
+        <v>-0.1177784221960813</v>
+      </c>
+      <c r="G62">
+        <v>0.07726467002795953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03834224056985565</v>
+        <v>-0.04303662214202434</v>
       </c>
       <c r="C63">
-        <v>-0.07240327574276918</v>
+        <v>0.07466510807633597</v>
       </c>
       <c r="D63">
-        <v>0.03680232509034537</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.03323049039321697</v>
+      </c>
+      <c r="E63">
+        <v>-0.01464434851428532</v>
+      </c>
+      <c r="F63">
+        <v>0.04887291684066512</v>
+      </c>
+      <c r="G63">
+        <v>-0.03064925858277757</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1117358467868145</v>
+        <v>-0.1095403165853508</v>
       </c>
       <c r="C64">
-        <v>-0.04773900535267541</v>
+        <v>0.05178968407989291</v>
       </c>
       <c r="D64">
-        <v>0.03470885387325463</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03726492771152642</v>
+      </c>
+      <c r="E64">
+        <v>-0.01243424671058005</v>
+      </c>
+      <c r="F64">
+        <v>-0.03622724933193972</v>
+      </c>
+      <c r="G64">
+        <v>0.004055552595583845</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1561623426611521</v>
+        <v>-0.1598666486820456</v>
       </c>
       <c r="C65">
-        <v>0.06050663349216686</v>
+        <v>-0.05053856782095005</v>
       </c>
       <c r="D65">
-        <v>0.04494013829929485</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05013082323900878</v>
+      </c>
+      <c r="E65">
+        <v>0.02417585981747577</v>
+      </c>
+      <c r="F65">
+        <v>-0.0168396573195431</v>
+      </c>
+      <c r="G65">
+        <v>0.02489742770538132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1020360921045584</v>
+        <v>-0.09535623701725299</v>
       </c>
       <c r="C66">
-        <v>-0.1285329670505477</v>
+        <v>0.1295240746407948</v>
       </c>
       <c r="D66">
-        <v>0.04859093928276864</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.03835673324412315</v>
+      </c>
+      <c r="E66">
+        <v>0.00630246657956522</v>
+      </c>
+      <c r="F66">
+        <v>0.105267358421129</v>
+      </c>
+      <c r="G66">
+        <v>-0.01065738332391197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05826746570271006</v>
+        <v>-0.04912439014614003</v>
       </c>
       <c r="C67">
-        <v>-0.0841717959750601</v>
+        <v>0.07861160947231295</v>
       </c>
       <c r="D67">
-        <v>-0.02997177629804284</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02510166540536118</v>
+      </c>
+      <c r="E67">
+        <v>-0.09416481903586621</v>
+      </c>
+      <c r="F67">
+        <v>-0.03220861675465091</v>
+      </c>
+      <c r="G67">
+        <v>0.0009243806929888537</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1395418159813368</v>
+        <v>-0.1426649907010887</v>
       </c>
       <c r="C68">
-        <v>0.2465998158639425</v>
+        <v>-0.2481191938384733</v>
       </c>
       <c r="D68">
-        <v>-0.06401090765407977</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.07204408877311122</v>
+      </c>
+      <c r="E68">
+        <v>0.09353291163314689</v>
+      </c>
+      <c r="F68">
+        <v>0.1219481927347555</v>
+      </c>
+      <c r="G68">
+        <v>0.01569974621275017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03897287502046665</v>
+        <v>-0.03826744368007284</v>
       </c>
       <c r="C69">
-        <v>-0.01333649015332369</v>
+        <v>0.01513664293673989</v>
       </c>
       <c r="D69">
-        <v>0.01882445958102601</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02494137607301944</v>
+      </c>
+      <c r="E69">
+        <v>-0.06064603955212065</v>
+      </c>
+      <c r="F69">
+        <v>-0.04103228951698808</v>
+      </c>
+      <c r="G69">
+        <v>-0.02066561942973156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07022907879400836</v>
+        <v>-0.0714905801683649</v>
       </c>
       <c r="C70">
-        <v>-0.08256258476211131</v>
+        <v>0.08055821510101512</v>
       </c>
       <c r="D70">
-        <v>-0.4949960706794518</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.3718869477120362</v>
+      </c>
+      <c r="E70">
+        <v>-0.3882030317723209</v>
+      </c>
+      <c r="F70">
+        <v>-0.2629757999083687</v>
+      </c>
+      <c r="G70">
+        <v>0.4213579838318392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1625494188414648</v>
+        <v>-0.1668569757412827</v>
       </c>
       <c r="C71">
-        <v>0.2539222942148193</v>
+        <v>-0.2525901770701052</v>
       </c>
       <c r="D71">
-        <v>-0.06870962654485242</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.07956297847794734</v>
+      </c>
+      <c r="E71">
+        <v>0.100649597715391</v>
+      </c>
+      <c r="F71">
+        <v>0.1219434679745882</v>
+      </c>
+      <c r="G71">
+        <v>0.01407582768150426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1435075724351094</v>
+        <v>-0.149036255344227</v>
       </c>
       <c r="C72">
-        <v>-0.007701188795989511</v>
+        <v>0.006815775802218499</v>
       </c>
       <c r="D72">
-        <v>0.07627209086347814</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07451479476883885</v>
+      </c>
+      <c r="E72">
+        <v>-0.03067645929561005</v>
+      </c>
+      <c r="F72">
+        <v>-0.02578906044718751</v>
+      </c>
+      <c r="G72">
+        <v>-0.00617031293129358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.191284937444975</v>
+        <v>-0.1991825358007545</v>
       </c>
       <c r="C73">
-        <v>-0.02065209073686309</v>
+        <v>0.02942929754430943</v>
       </c>
       <c r="D73">
-        <v>0.07081197822548285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.08113761741288129</v>
+      </c>
+      <c r="E73">
+        <v>-0.04496524530167385</v>
+      </c>
+      <c r="F73">
+        <v>-0.1095448830736691</v>
+      </c>
+      <c r="G73">
+        <v>-0.005029095363656957</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08660162605259854</v>
+        <v>-0.0858009949615937</v>
       </c>
       <c r="C74">
-        <v>-0.003282155049039631</v>
+        <v>0.01006996211917491</v>
       </c>
       <c r="D74">
-        <v>0.07485003661982551</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.08255173836001053</v>
+      </c>
+      <c r="E74">
+        <v>-0.00382249522359865</v>
+      </c>
+      <c r="F74">
+        <v>-0.0725430198608733</v>
+      </c>
+      <c r="G74">
+        <v>0.005830638951929287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1241295510896801</v>
+        <v>-0.1162569854741479</v>
       </c>
       <c r="C75">
-        <v>-0.01890695269183394</v>
+        <v>0.02149494338011669</v>
       </c>
       <c r="D75">
-        <v>0.0647154925556058</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.06989526570877699</v>
+      </c>
+      <c r="E75">
+        <v>-0.04753389238560612</v>
+      </c>
+      <c r="F75">
+        <v>-0.05745508978594223</v>
+      </c>
+      <c r="G75">
+        <v>0.05160763595098534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07317684618404019</v>
+        <v>-0.08689415685012512</v>
       </c>
       <c r="C77">
-        <v>-0.1129647349314676</v>
+        <v>0.1135936338114344</v>
       </c>
       <c r="D77">
-        <v>0.06301732324531249</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06992533997377014</v>
+      </c>
+      <c r="E77">
+        <v>0.03251648494029489</v>
+      </c>
+      <c r="F77">
+        <v>0.09182304200331622</v>
+      </c>
+      <c r="G77">
+        <v>0.1036320947737063</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08881464529782337</v>
+        <v>-0.09266520696541826</v>
       </c>
       <c r="C78">
-        <v>-0.1257219061527844</v>
+        <v>0.1256379565257674</v>
       </c>
       <c r="D78">
-        <v>0.07747910223834778</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06194786804278437</v>
+      </c>
+      <c r="E78">
+        <v>0.03922931624458792</v>
+      </c>
+      <c r="F78">
+        <v>0.116570519668338</v>
+      </c>
+      <c r="G78">
+        <v>0.0821367130691415</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1675376404018885</v>
+        <v>-0.1626036217169152</v>
       </c>
       <c r="C79">
-        <v>-0.01681935446159687</v>
+        <v>0.01860364083764485</v>
       </c>
       <c r="D79">
-        <v>0.03437660422833033</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04290670472279539</v>
+      </c>
+      <c r="E79">
+        <v>-0.03239402935213011</v>
+      </c>
+      <c r="F79">
+        <v>-0.0514693202037581</v>
+      </c>
+      <c r="G79">
+        <v>0.05145134471560149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07562540283111069</v>
+        <v>-0.07334643485233062</v>
       </c>
       <c r="C80">
-        <v>-0.06997566639603317</v>
+        <v>0.06515804657827701</v>
       </c>
       <c r="D80">
-        <v>0.03576160223525676</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01843545726477933</v>
+      </c>
+      <c r="E80">
+        <v>-0.03019437205020762</v>
+      </c>
+      <c r="F80">
+        <v>0.09495042678955143</v>
+      </c>
+      <c r="G80">
+        <v>-0.1077487821846674</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1124488200159946</v>
+        <v>-0.105584685994339</v>
       </c>
       <c r="C81">
-        <v>0.0140769369335644</v>
+        <v>-0.01146571616269714</v>
       </c>
       <c r="D81">
-        <v>0.03407855789973403</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.04203278683910498</v>
+      </c>
+      <c r="E81">
+        <v>-0.0597119354074469</v>
+      </c>
+      <c r="F81">
+        <v>-0.06674119999774224</v>
+      </c>
+      <c r="G81">
+        <v>0.01298554174176237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1628164667653985</v>
+        <v>-0.1584361039376869</v>
       </c>
       <c r="C82">
-        <v>0.01588183170854051</v>
+        <v>-0.01181041444582666</v>
       </c>
       <c r="D82">
-        <v>0.08607602057836472</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.09161898132530127</v>
+      </c>
+      <c r="E82">
+        <v>0.01516847572796073</v>
+      </c>
+      <c r="F82">
+        <v>-0.1269948679633243</v>
+      </c>
+      <c r="G82">
+        <v>0.01916480259315319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05386914072553604</v>
+        <v>-0.04982077012111958</v>
       </c>
       <c r="C83">
-        <v>-0.06411867560444458</v>
+        <v>0.05965996515711565</v>
       </c>
       <c r="D83">
-        <v>-0.007521282406385711</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.009543043308580454</v>
+      </c>
+      <c r="E83">
+        <v>-0.009636921996593684</v>
+      </c>
+      <c r="F83">
+        <v>0.002484337702653668</v>
+      </c>
+      <c r="G83">
+        <v>0.01343266928311272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05103333138427312</v>
+        <v>-0.04848643672703613</v>
       </c>
       <c r="C84">
-        <v>-0.06799758737457248</v>
+        <v>0.06755893103707683</v>
       </c>
       <c r="D84">
-        <v>-0.001655775096309027</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.002266755797974492</v>
+      </c>
+      <c r="E84">
+        <v>-0.03285877047583386</v>
+      </c>
+      <c r="F84">
+        <v>-0.004828419706507568</v>
+      </c>
+      <c r="G84">
+        <v>0.02506534670444032</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1403112452999242</v>
+        <v>-0.1343504139839081</v>
       </c>
       <c r="C85">
-        <v>-0.004036825097003447</v>
+        <v>0.007588459573979022</v>
       </c>
       <c r="D85">
-        <v>0.09299892377267195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09448645928157089</v>
+      </c>
+      <c r="E85">
+        <v>-0.0005768701066323427</v>
+      </c>
+      <c r="F85">
+        <v>-0.04863061835766467</v>
+      </c>
+      <c r="G85">
+        <v>0.03901086139764418</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08316812187147092</v>
+        <v>-0.08070792959478768</v>
       </c>
       <c r="C86">
-        <v>-0.1364011040062865</v>
+        <v>0.1362932713837071</v>
       </c>
       <c r="D86">
-        <v>-0.3590218664453769</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.3796866335317969</v>
+      </c>
+      <c r="E86">
+        <v>-0.5151615459872734</v>
+      </c>
+      <c r="F86">
+        <v>0.5263145247042365</v>
+      </c>
+      <c r="G86">
+        <v>-0.1594122763194727</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.09022806816552324</v>
+        <v>-0.08700571745644585</v>
       </c>
       <c r="C87">
-        <v>-0.09875092399118217</v>
+        <v>0.0967223114484468</v>
       </c>
       <c r="D87">
-        <v>0.05055138711931944</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.02539646536543181</v>
+      </c>
+      <c r="E87">
+        <v>0.1403799759525703</v>
+      </c>
+      <c r="F87">
+        <v>0.06665644543280676</v>
+      </c>
+      <c r="G87">
+        <v>-0.05263761746147994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06095288309141413</v>
+        <v>-0.06020500801469261</v>
       </c>
       <c r="C88">
-        <v>-0.06007321770670832</v>
+        <v>0.06100390020432587</v>
       </c>
       <c r="D88">
-        <v>0.01545202841786968</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01847695096328093</v>
+      </c>
+      <c r="E88">
+        <v>-0.01401001993141256</v>
+      </c>
+      <c r="F88">
+        <v>-0.02615502077174488</v>
+      </c>
+      <c r="G88">
+        <v>0.01524679430375576</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1478881072465506</v>
+        <v>-0.1509080820746039</v>
       </c>
       <c r="C89">
-        <v>0.1979145967612799</v>
+        <v>-0.2056592205700859</v>
       </c>
       <c r="D89">
-        <v>-0.04057312412919183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0526621201387879</v>
+      </c>
+      <c r="E89">
+        <v>0.08272089766063823</v>
+      </c>
+      <c r="F89">
+        <v>0.09035692692263421</v>
+      </c>
+      <c r="G89">
+        <v>-0.01131688952438584</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1768684255871632</v>
+        <v>-0.1838795405840996</v>
       </c>
       <c r="C90">
-        <v>0.2287612065415993</v>
+        <v>-0.2360124054499423</v>
       </c>
       <c r="D90">
-        <v>-0.08484676080545075</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.1027513642055306</v>
+      </c>
+      <c r="E90">
+        <v>0.1241256443583966</v>
+      </c>
+      <c r="F90">
+        <v>0.1353453435671641</v>
+      </c>
+      <c r="G90">
+        <v>-0.00236391092994049</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.127102297027831</v>
+        <v>-0.1213331345505031</v>
       </c>
       <c r="C91">
-        <v>0.02325397771615985</v>
+        <v>-0.02068391839192932</v>
       </c>
       <c r="D91">
-        <v>0.0371526081312471</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0451738119718551</v>
+      </c>
+      <c r="E91">
+        <v>-0.1046499473201302</v>
+      </c>
+      <c r="F91">
+        <v>-0.09141824914381454</v>
+      </c>
+      <c r="G91">
+        <v>-0.0002049726928910421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1714678674178433</v>
+        <v>-0.1746413926232529</v>
       </c>
       <c r="C92">
-        <v>0.2640174460500484</v>
+        <v>-0.2760382290857641</v>
       </c>
       <c r="D92">
-        <v>-0.07529592190434775</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.08189502197694744</v>
+      </c>
+      <c r="E92">
+        <v>0.08137722343868163</v>
+      </c>
+      <c r="F92">
+        <v>0.1883343499404316</v>
+      </c>
+      <c r="G92">
+        <v>0.03798683480294975</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1772073734643597</v>
+        <v>-0.1851880826412808</v>
       </c>
       <c r="C93">
-        <v>0.2229446776769791</v>
+        <v>-0.2278066076632084</v>
       </c>
       <c r="D93">
-        <v>-0.04860948616109848</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.05260596865291629</v>
+      </c>
+      <c r="E93">
+        <v>0.0596092449617603</v>
+      </c>
+      <c r="F93">
+        <v>0.1001824671964608</v>
+      </c>
+      <c r="G93">
+        <v>0.05574034718911328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1190966793087606</v>
+        <v>-0.1134073236739558</v>
       </c>
       <c r="C94">
-        <v>-0.03325232970832354</v>
+        <v>0.03362323560576772</v>
       </c>
       <c r="D94">
-        <v>0.05786727548725486</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.06163754067917892</v>
+      </c>
+      <c r="E94">
+        <v>-0.04488476444544124</v>
+      </c>
+      <c r="F94">
+        <v>-0.05542311266308909</v>
+      </c>
+      <c r="G94">
+        <v>0.04573733108704001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1180012755067104</v>
+        <v>-0.1209595937074446</v>
       </c>
       <c r="C95">
-        <v>-0.1002184332109015</v>
+        <v>0.11149610732488</v>
       </c>
       <c r="D95">
-        <v>0.01626606210221204</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.02585564837241648</v>
+      </c>
+      <c r="E95">
+        <v>-0.03450026806177619</v>
+      </c>
+      <c r="F95">
+        <v>0.07387351231843833</v>
+      </c>
+      <c r="G95">
+        <v>-0.00185077161112252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1124483057345811</v>
+        <v>-0.1109159186220676</v>
       </c>
       <c r="C96">
-        <v>-0.1105492837223081</v>
+        <v>0.1153944285948502</v>
       </c>
       <c r="D96">
-        <v>-0.01789317515680656</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.003200361983603388</v>
+      </c>
+      <c r="E96">
+        <v>-0.02081977191848832</v>
+      </c>
+      <c r="F96">
+        <v>-0.07812675213875882</v>
+      </c>
+      <c r="G96">
+        <v>0.09939447932794128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1911040029349848</v>
+        <v>-0.1952862616560406</v>
       </c>
       <c r="C97">
-        <v>-0.003644224500810293</v>
+        <v>-0.001530680784338263</v>
       </c>
       <c r="D97">
-        <v>-0.09189552560330243</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1264682446836553</v>
+      </c>
+      <c r="E97">
+        <v>-0.1537672120391972</v>
+      </c>
+      <c r="F97">
+        <v>-0.3440112580367412</v>
+      </c>
+      <c r="G97">
+        <v>-0.8057402329920863</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1990439994826528</v>
+        <v>-0.2041145390521227</v>
       </c>
       <c r="C98">
-        <v>-0.03021804488434013</v>
+        <v>0.0340802208193778</v>
       </c>
       <c r="D98">
-        <v>-0.1161685041162439</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1032177041268161</v>
+      </c>
+      <c r="E98">
+        <v>-0.007740069034908797</v>
+      </c>
+      <c r="F98">
+        <v>-0.1052942601333043</v>
+      </c>
+      <c r="G98">
+        <v>0.02017261182485158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05417877427281637</v>
+        <v>-0.05362411208732217</v>
       </c>
       <c r="C99">
-        <v>-0.0532929251357829</v>
+        <v>0.05459653423846018</v>
       </c>
       <c r="D99">
-        <v>0.009425580784672885</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.007575633477486674</v>
+      </c>
+      <c r="E99">
+        <v>-0.0009644933088860138</v>
+      </c>
+      <c r="F99">
+        <v>0.03268144003130436</v>
+      </c>
+      <c r="G99">
+        <v>-0.01441809854116556</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1151428796300375</v>
+        <v>-0.1075621762970394</v>
       </c>
       <c r="C100">
-        <v>-0.398796680560549</v>
+        <v>0.3687691046939189</v>
       </c>
       <c r="D100">
-        <v>-0.5450822462187798</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.6349332129136863</v>
+      </c>
+      <c r="E100">
+        <v>0.5743555293136815</v>
+      </c>
+      <c r="F100">
+        <v>-0.1029067212185506</v>
+      </c>
+      <c r="G100">
+        <v>-0.006047192672669505</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02403971584385701</v>
+        <v>-0.02668143737689676</v>
       </c>
       <c r="C101">
-        <v>-0.04782019417819299</v>
+        <v>0.04581280044988104</v>
       </c>
       <c r="D101">
-        <v>0.01626875362498245</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01687384468367301</v>
+      </c>
+      <c r="E101">
+        <v>-0.01662470431954536</v>
+      </c>
+      <c r="F101">
+        <v>0.07175057924976529</v>
+      </c>
+      <c r="G101">
+        <v>-0.004343995856610316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
